--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_16-56.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_16-56.xlsx
@@ -62,6 +62,12 @@
     <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>CEFAZONE 1 GM VIAL</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
     <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -116,6 +119,12 @@
     <t>2:1</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
     <t>GENUPHIL ADVANCE 10 SACHETS</t>
   </si>
   <si>
@@ -134,6 +143,9 @@
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
     <t>SERETIDE INHAELER 125/25 MC</t>
   </si>
   <si>
@@ -171,6 +183,12 @@
   </si>
   <si>
     <t>10:0</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>6:0</t>
   </si>
   <si>
     <t xml:space="preserve">بلاستر 2سم </t>
@@ -976,11 +994,11 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1002,11 +1020,11 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>258</v>
+        <v>96</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1022,17 +1040,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1040,7 +1058,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1048,17 +1066,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>21</v>
+        <v>248</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>0.33000000000000002</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1066,7 +1084,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1074,17 +1092,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1106,11 +1124,11 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1126,13 +1144,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
@@ -1144,7 +1162,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1152,17 +1170,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1178,17 +1196,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>0.67000000000000004</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1196,7 +1214,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1204,13 +1222,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
@@ -1230,17 +1248,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>1</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1248,7 +1266,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1256,17 +1274,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>1475</v>
+        <v>34</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1282,17 +1300,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>75</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1300,7 +1318,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1308,17 +1326,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>40</v>
+        <v>1475</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1326,7 +1344,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1334,17 +1352,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1352,7 +1370,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1360,17 +1378,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1378,7 +1396,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1386,17 +1404,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>0.5</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1404,7 +1422,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1412,17 +1430,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>221.16</v>
+        <v>76</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1430,7 +1448,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1438,13 +1456,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
@@ -1456,7 +1474,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1464,17 +1482,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>13</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1490,13 +1508,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>192</v>
+        <v>221.16</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
@@ -1522,7 +1540,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>28.710000000000001</v>
+        <v>58</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
@@ -1542,17 +1560,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1560,7 +1578,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1568,13 +1586,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
@@ -1594,17 +1612,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>56</v>
+        <v>28.710000000000001</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1612,7 +1630,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1620,17 +1638,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1638,7 +1656,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1646,13 +1664,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
@@ -1664,7 +1682,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1672,13 +1690,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
@@ -1690,7 +1708,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1698,17 +1716,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1716,7 +1734,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1724,17 +1742,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1750,13 +1768,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
@@ -1776,17 +1794,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1794,7 +1812,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1802,7 +1820,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -1812,7 +1830,7 @@
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1820,7 +1838,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1828,17 +1846,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1854,13 +1872,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
@@ -1872,7 +1890,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1880,17 +1898,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1898,7 +1916,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1906,51 +1924,155 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="6">
+        <v>44</v>
+      </c>
+      <c t="s" r="B47" s="7">
+        <v>70</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c t="s" r="H47" s="8">
+        <v>71</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="9">
+        <v>20</v>
+      </c>
+      <c r="M47" s="9"/>
+      <c r="N47" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="47" ht="26.25" customHeight="1">
-      <c r="K47" s="11">
-        <v>3984.3699999999999</v>
-      </c>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="12">
-        <v>70</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c t="s" r="F48" s="13">
-        <v>71</v>
-      </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="14"/>
-      <c t="s" r="I48" s="15">
+    <row r="48" ht="25.5" customHeight="1">
+      <c r="A48" s="6">
+        <v>45</v>
+      </c>
+      <c t="s" r="B48" s="7">
         <v>72</v>
       </c>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c t="s" r="H48" s="8">
+        <v>73</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="9">
+        <v>25</v>
+      </c>
+      <c r="M48" s="9"/>
+      <c r="N48" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="24.75" customHeight="1">
+      <c r="A49" s="6">
+        <v>46</v>
+      </c>
+      <c t="s" r="B49" s="7">
+        <v>74</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c t="s" r="H49" s="8">
+        <v>64</v>
+      </c>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="9">
+        <v>15</v>
+      </c>
+      <c r="M49" s="9"/>
+      <c r="N49" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" ht="25.5" customHeight="1">
+      <c r="A50" s="6">
+        <v>47</v>
+      </c>
+      <c t="s" r="B50" s="7">
+        <v>75</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c t="s" r="H50" s="8">
+        <v>64</v>
+      </c>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="9">
+        <v>20</v>
+      </c>
+      <c r="M50" s="9"/>
+      <c r="N50" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="K51" s="11">
+        <v>4186.0900000000001</v>
+      </c>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="12">
+        <v>76</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c t="s" r="F52" s="13">
+        <v>77</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="14"/>
+      <c t="s" r="I52" s="15">
+        <v>78</v>
+      </c>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="140">
+  <mergeCells count="152">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2087,10 +2209,22 @@
     <mergeCell ref="B46:G46"/>
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="I52:N52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
